--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Documents\Eclipse Workspace\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3016C7D2-BC4D-4171-BB4D-A70FC2BC548E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760C13B4-CF95-403D-A315-8A74FACBE309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7703A645-10C4-495F-9F13-DD99D6E45E46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Email</t>
   </si>
@@ -51,18 +51,6 @@
   </si>
   <si>
     <t>Test@1234</t>
-  </si>
-  <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>ab@gmail.com</t>
-  </si>
-  <si>
-    <t>password1</t>
   </si>
 </sst>
 </file>
@@ -448,7 +436,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,26 +465,28 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{679CBAC7-A357-4E57-B16B-2EE94DD7FF1E}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{650EF80A-1AB1-40EE-9231-0B701F06C6E3}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{FB79F6FC-7608-4AC8-9506-AB817B587B3E}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{5AC1CCD5-A7C4-4D8A-B3C9-9E18425CFBC2}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{7A9BFA7A-5DE3-4E7D-8287-F28648A0D351}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{3546A2F6-D1AA-420D-93F2-ED2F36C517E3}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{2EB9B227-B520-4391-B3F3-EBAC6D87412C}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{0CE0E963-08CD-44CF-9ADC-93C5F987D762}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Documents\Eclipse Workspace\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760C13B4-CF95-403D-A315-8A74FACBE309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D774383-682B-4373-B153-991764D8031B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7703A645-10C4-495F-9F13-DD99D6E45E46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Email</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Test@1234</t>
+  </si>
+  <si>
+    <t>Test@12345</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
